--- a/DailyVocabulary.xlsx
+++ b/DailyVocabulary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Accomplish</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t>Attain</t>
+  </si>
+  <si>
+    <t>Rigorous(tough):: Government should make rigorous law to control crime.</t>
+  </si>
+  <si>
+    <t>Consent(permission):: Without taking any consent from head of the company, the manager took th ewrong action</t>
+  </si>
+  <si>
+    <t>Hypothesis(assumption)::Engineer wrong Hypothesis causes weak construction</t>
+  </si>
+  <si>
+    <t>Peculiar(unique)::Taj Mahal is the peculiar architecture in the world.</t>
+  </si>
+  <si>
+    <t>Adequate(enough)::In nearly every paper there were adequate extracts.</t>
   </si>
 </sst>
 </file>
@@ -381,13 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -412,6 +430,31 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DailyVocabulary.xlsx
+++ b/DailyVocabulary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Accomplish</t>
   </si>
@@ -54,13 +54,76 @@
   </si>
   <si>
     <t>Adequate(enough)::In nearly every paper there were adequate extracts.</t>
+  </si>
+  <si>
+    <t>Date::17-11-2022</t>
+  </si>
+  <si>
+    <t>Date::18-11-2022</t>
+  </si>
+  <si>
+    <t>Exacerbate</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>making bad to worse</t>
+  </si>
+  <si>
+    <t>Sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shouting at her while she’s mad will only exacerbate her mood, so calm yourself before making a conversation. </t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Confines</t>
+  </si>
+  <si>
+    <t>Scholastic</t>
+  </si>
+  <si>
+    <t>Boundry</t>
+  </si>
+  <si>
+    <t>Typical</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important to draw Confines with friends and relatives. </t>
+  </si>
+  <si>
+    <t>Overseas</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>Beautiful branches are typical of Goa and Kerala.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On her 15th birthday, Ravi’s parents took him on a Overseas tour. </t>
+  </si>
+  <si>
+    <t>The teacher gave out scholastic awards to the students</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +133,28 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF121416"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF121416"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -104,10 +189,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -116,8 +202,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,15 +485,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="96.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.35">
@@ -432,6 +523,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
@@ -455,6 +551,82 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
